--- a/data_hongkong/hongkong_flu.xlsx
+++ b/data_hongkong/hongkong_flu.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="384">
   <si>
     <t>Week number</t>
   </si>
@@ -6821,6 +6821,41 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
